--- a/tests/fixtures/orderforms/1508.26.mip.xlsx
+++ b/tests/fixtures/orderforms/1508.26.mip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrik.grenfeldt/Documents/GitHub/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06B9E0C-180D-FA47-865A-57BAC95EFC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FB349B-0928-7144-B5BD-A60A2BA437DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4340" yWindow="-19540" windowWidth="27840" windowHeight="17500" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2691,376 +2691,376 @@
     <t>comment</t>
   </si>
   <si>
-    <t>mipsample1</t>
+    <t>mipdnasample1</t>
   </si>
   <si>
-    <t>mipsample2</t>
+    <t>mipdnasample2</t>
   </si>
   <si>
-    <t>mipsample3</t>
+    <t>mipdnasample3</t>
   </si>
   <si>
-    <t>mipsample4</t>
+    <t>mipdnasample4</t>
   </si>
   <si>
-    <t>mipsample5</t>
+    <t>mipdnasample5</t>
   </si>
   <si>
-    <t>mipsample6</t>
+    <t>mipdnasample6</t>
   </si>
   <si>
-    <t>mipsample7</t>
+    <t>mipdnasample7</t>
   </si>
   <si>
-    <t>mipsample8</t>
+    <t>mipdnasample8</t>
   </si>
   <si>
-    <t>mipsample9</t>
+    <t>mipdnasample9</t>
   </si>
   <si>
-    <t>mipsample10</t>
+    <t>mipdnasample10</t>
   </si>
   <si>
-    <t>mipsample11</t>
+    <t>mipdnasample11</t>
   </si>
   <si>
-    <t>mipsample12</t>
+    <t>mipdnasample12</t>
   </si>
   <si>
-    <t>mipsample13</t>
+    <t>mipdnasample13</t>
   </si>
   <si>
-    <t>mipsample14</t>
+    <t>mipdnasample14</t>
   </si>
   <si>
-    <t>mipsample15</t>
+    <t>mipdnasample15</t>
   </si>
   <si>
-    <t>mipsample16</t>
+    <t>mipdnasample16</t>
   </si>
   <si>
-    <t>mipsample17</t>
+    <t>mipdnasample17</t>
   </si>
   <si>
-    <t>mipsample18</t>
+    <t>mipdnasample18</t>
   </si>
   <si>
-    <t>mipsample19</t>
+    <t>mipdnasample19</t>
   </si>
   <si>
-    <t>mipsample20</t>
+    <t>mipdnasample20</t>
   </si>
   <si>
-    <t>mipsample21</t>
+    <t>mipdnasample21</t>
   </si>
   <si>
-    <t>mipsample22</t>
+    <t>mipdnasample22</t>
   </si>
   <si>
-    <t>mipsample23</t>
+    <t>mipdnasample23</t>
   </si>
   <si>
-    <t>mipsample24</t>
+    <t>mipdnasample24</t>
   </si>
   <si>
-    <t>mipsample25</t>
+    <t>mipdnasample25</t>
   </si>
   <si>
-    <t>mipsample26</t>
+    <t>mipdnasample26</t>
   </si>
   <si>
-    <t>mipsample27</t>
+    <t>mipdnasample27</t>
   </si>
   <si>
-    <t>mipsample28</t>
+    <t>mipdnasample28</t>
   </si>
   <si>
-    <t>mipsample29</t>
+    <t>mipdnasample29</t>
   </si>
   <si>
-    <t>mipsample30</t>
+    <t>mipdnasample30</t>
   </si>
   <si>
-    <t>mipsample31</t>
+    <t>mipdnasample31</t>
   </si>
   <si>
-    <t>mipsample32</t>
+    <t>mipdnasample32</t>
   </si>
   <si>
-    <t>mipsample33</t>
+    <t>mipdnasample33</t>
   </si>
   <si>
-    <t>mipsample34</t>
+    <t>mipdnasample34</t>
   </si>
   <si>
-    <t>mipsample35</t>
+    <t>mipdnasample35</t>
   </si>
   <si>
-    <t>mipsample36</t>
+    <t>mipdnasample36</t>
   </si>
   <si>
-    <t>mipsample37</t>
+    <t>mipdnasample37</t>
   </si>
   <si>
-    <t>mipsample38</t>
+    <t>mipdnasample38</t>
   </si>
   <si>
-    <t>mipsample39</t>
+    <t>mipdnasample39</t>
   </si>
   <si>
-    <t>mipsample40</t>
+    <t>mipdnasample40</t>
   </si>
   <si>
-    <t>mipsample41</t>
+    <t>mipdnasample41</t>
   </si>
   <si>
-    <t>mipsample42</t>
+    <t>mipdnasample42</t>
   </si>
   <si>
-    <t>mipcase1</t>
+    <t>mipdnacase1</t>
   </si>
   <si>
-    <t>mipcase2</t>
+    <t>mipdnacase2</t>
   </si>
   <si>
-    <t>mipcase3</t>
+    <t>mipdnacase3</t>
   </si>
   <si>
-    <t>mipcase4</t>
+    <t>mipdnacase4</t>
   </si>
   <si>
-    <t>mipcase5</t>
+    <t>mipdnacase5</t>
   </si>
   <si>
-    <t>mipcase6</t>
+    <t>mipdnacase6</t>
   </si>
   <si>
-    <t>mipcase7</t>
+    <t>mipdnacase7</t>
   </si>
   <si>
-    <t>mipcase8</t>
+    <t>mipdnacase8</t>
   </si>
   <si>
-    <t>mipcase9</t>
+    <t>mipdnacase9</t>
   </si>
   <si>
-    <t>mipcase10</t>
+    <t>mipdnacase10</t>
   </si>
   <si>
-    <t>mipcase11</t>
+    <t>mipdnacase11</t>
   </si>
   <si>
-    <t>mipcase12</t>
+    <t>mipdnacase12</t>
   </si>
   <si>
-    <t>mipcase13</t>
+    <t>mipdnacase13</t>
   </si>
   <si>
-    <t>mipcase14</t>
+    <t>mipdnacase14</t>
   </si>
   <si>
-    <t>mipcase15</t>
+    <t>mipdnacase15</t>
   </si>
   <si>
-    <t>mipcase16</t>
+    <t>mipdnacase16</t>
   </si>
   <si>
-    <t>mipcase17</t>
+    <t>mipdnacase17</t>
   </si>
   <si>
-    <t>mipcase18</t>
+    <t>mipdnacase18</t>
   </si>
   <si>
-    <t>mipcase19</t>
+    <t>mipdnacase19</t>
   </si>
   <si>
-    <t>mipcase20</t>
+    <t>mipdnacase20</t>
   </si>
   <si>
-    <t>mipcase21</t>
+    <t>mipdnacase21</t>
   </si>
   <si>
-    <t>mipcase22</t>
+    <t>mipdnacase22</t>
   </si>
   <si>
-    <t>mipcase23</t>
+    <t>mipdnacase23</t>
   </si>
   <si>
-    <t>mipcase24</t>
+    <t>mipdnacase24</t>
   </si>
   <si>
-    <t>mipcase25</t>
+    <t>mipdnacase25</t>
   </si>
   <si>
-    <t>mipcase26</t>
+    <t>mipdnacase26</t>
   </si>
   <si>
-    <t>mipcase27</t>
+    <t>mipdnacase27</t>
   </si>
   <si>
-    <t>mipcase28</t>
+    <t>mipdnacase28</t>
   </si>
   <si>
-    <t>mipcase29</t>
+    <t>mipdnacase29</t>
   </si>
   <si>
-    <t>mipcase30</t>
+    <t>mipdnacase30</t>
   </si>
   <si>
-    <t>mipcase31</t>
+    <t>mipdnacase31</t>
   </si>
   <si>
-    <t>mipcase32</t>
+    <t>mipdnacase32</t>
   </si>
   <si>
-    <t>mipcase33</t>
+    <t>mipdnacase33</t>
   </si>
   <si>
-    <t>mipcase34</t>
+    <t>mipdnacase34</t>
   </si>
   <si>
-    <t>mipcase35</t>
+    <t>mipdnacase35</t>
   </si>
   <si>
-    <t>mipcase36</t>
+    <t>mipdnacase36</t>
   </si>
   <si>
-    <t>mipcase37</t>
+    <t>mipdnacase37</t>
   </si>
   <si>
-    <t>mipcase38</t>
+    <t>mipdnacase38</t>
   </si>
   <si>
-    <t>mipcase39</t>
+    <t>mipdnacase39</t>
   </si>
   <si>
-    <t>mipcase40</t>
+    <t>mipdnacase40</t>
   </si>
   <si>
-    <t>mipsubject1</t>
+    <t>mipdnasubject1</t>
   </si>
   <si>
-    <t>mipsubject2</t>
+    <t>mipdnasubject2</t>
   </si>
   <si>
-    <t>mipsubject3</t>
+    <t>mipdnasubject3</t>
   </si>
   <si>
-    <t>mipsubject4</t>
+    <t>mipdnasubject4</t>
   </si>
   <si>
-    <t>mipsubject5</t>
+    <t>mipdnasubject5</t>
   </si>
   <si>
-    <t>mipsubject6</t>
+    <t>mipdnasubject6</t>
   </si>
   <si>
-    <t>mipsubject7</t>
+    <t>mipdnasubject7</t>
   </si>
   <si>
-    <t>mipsubject8</t>
+    <t>mipdnasubject8</t>
   </si>
   <si>
-    <t>mipsubject9</t>
+    <t>mipdnasubject9</t>
   </si>
   <si>
-    <t>mipsubject10</t>
+    <t>mipdnasubject10</t>
   </si>
   <si>
-    <t>mipsubject11</t>
+    <t>mipdnasubject11</t>
   </si>
   <si>
-    <t>mipsubject12</t>
+    <t>mipdnasubject12</t>
   </si>
   <si>
-    <t>mipsubject13</t>
+    <t>mipdnasubject13</t>
   </si>
   <si>
-    <t>mipsubject14</t>
+    <t>mipdnasubject14</t>
   </si>
   <si>
-    <t>mipsubject15</t>
+    <t>mipdnasubject15</t>
   </si>
   <si>
-    <t>mipsubject16</t>
+    <t>mipdnasubject16</t>
   </si>
   <si>
-    <t>mipsubject17</t>
+    <t>mipdnasubject17</t>
   </si>
   <si>
-    <t>mipsubject18</t>
+    <t>mipdnasubject18</t>
   </si>
   <si>
-    <t>mipsubject19</t>
+    <t>mipdnasubject19</t>
   </si>
   <si>
-    <t>mipsubject20</t>
+    <t>mipdnasubject20</t>
   </si>
   <si>
-    <t>mipsubject21</t>
+    <t>mipdnasubject21</t>
   </si>
   <si>
-    <t>mipsubject22</t>
+    <t>mipdnasubject22</t>
   </si>
   <si>
-    <t>mipsubject23</t>
+    <t>mipdnasubject23</t>
   </si>
   <si>
-    <t>mipsubject24</t>
+    <t>mipdnasubject24</t>
   </si>
   <si>
-    <t>mipsubject25</t>
+    <t>mipdnasubject25</t>
   </si>
   <si>
-    <t>mipsubject26</t>
+    <t>mipdnasubject26</t>
   </si>
   <si>
-    <t>mipsubject27</t>
+    <t>mipdnasubject27</t>
   </si>
   <si>
-    <t>mipsubject28</t>
+    <t>mipdnasubject28</t>
   </si>
   <si>
-    <t>mipsubject29</t>
+    <t>mipdnasubject29</t>
   </si>
   <si>
-    <t>mipsubject30</t>
+    <t>mipdnasubject30</t>
   </si>
   <si>
-    <t>mipsubject31</t>
+    <t>mipdnasubject31</t>
   </si>
   <si>
-    <t>mipsubject32</t>
+    <t>mipdnasubject32</t>
   </si>
   <si>
-    <t>mipsubject33</t>
+    <t>mipdnasubject33</t>
   </si>
   <si>
-    <t>mipsubject34</t>
+    <t>mipdnasubject34</t>
   </si>
   <si>
-    <t>mipsubject35</t>
+    <t>mipdnasubject35</t>
   </si>
   <si>
-    <t>mipsubject36</t>
+    <t>mipdnasubject36</t>
   </si>
   <si>
-    <t>mipsubject37</t>
+    <t>mipdnasubject37</t>
   </si>
   <si>
-    <t>mipsubject38</t>
+    <t>mipdnasubject38</t>
   </si>
   <si>
-    <t>mipsubject39</t>
+    <t>mipdnasubject39</t>
   </si>
   <si>
-    <t>mipsubject40</t>
+    <t>mipdnasubject40</t>
   </si>
   <si>
-    <t>mipsubject41</t>
+    <t>mipdnasubject41</t>
   </si>
   <si>
-    <t>mipsubject42</t>
+    <t>mipdnasubject42</t>
   </si>
 </sst>
 </file>
@@ -5328,8 +5328,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>

--- a/tests/fixtures/orderforms/1508.26.mip.xlsx
+++ b/tests/fixtures/orderforms/1508.26.mip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrik.grenfeldt/Documents/GitHub/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FB349B-0928-7144-B5BD-A60A2BA437DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C742A9B-7BA9-C14A-8F32-2AA1123E0851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4340" yWindow="-19540" windowWidth="27840" windowHeight="17500" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1180" yWindow="-20220" windowWidth="27840" windowHeight="17500" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -5328,8 +5328,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -14108,8 +14108,8 @@
       <c r="P16" s="81"/>
       <c r="Q16" s="97"/>
       <c r="R16" s="48"/>
-      <c r="S16" s="163" t="s">
-        <v>82</v>
+      <c r="S16" s="166" t="s">
+        <v>505</v>
       </c>
       <c r="T16" s="120" t="s">
         <v>79</v>
@@ -15174,8 +15174,8 @@
       <c r="P17" s="81"/>
       <c r="Q17" s="97"/>
       <c r="R17" s="48"/>
-      <c r="S17" s="163" t="s">
-        <v>94</v>
+      <c r="S17" s="166" t="s">
+        <v>505</v>
       </c>
       <c r="T17" s="120" t="s">
         <v>79</v>
